--- a/database/seeders/data_barang.xlsx
+++ b/database/seeders/data_barang.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\inventory_eoq\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9617E1F-75F3-4433-BA12-13238FC325DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83EEA20-1AD0-4E4F-BC84-D4058D115489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{164D28EB-19A2-46B5-9A43-4782667B0A5D}"/>
+    <workbookView xWindow="5400" yWindow="3996" windowWidth="13200" windowHeight="8964" xr2:uid="{164D28EB-19A2-46B5-9A43-4782667B0A5D}"/>
   </bookViews>
   <sheets>
-    <sheet name="barangs" sheetId="1" r:id="rId1"/>
+    <sheet name="barang" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -433,7 +433,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,7 +470,7 @@
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(30,60)</f>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -485,7 +485,7 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D9" ca="1" si="0">RANDBETWEEN(30,60)</f>
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -500,7 +500,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -515,7 +515,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -530,7 +530,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -545,7 +545,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -560,7 +560,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -575,7 +575,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/data_barang.xlsx
+++ b/database/seeders/data_barang.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\inventory_eoq\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83EEA20-1AD0-4E4F-BC84-D4058D115489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE0E4D-0E75-46D4-8031-27928EEF98D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="3996" windowWidth="13200" windowHeight="8964" xr2:uid="{164D28EB-19A2-46B5-9A43-4782667B0A5D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{164D28EB-19A2-46B5-9A43-4782667B0A5D}"/>
   </bookViews>
   <sheets>
     <sheet name="barang" sheetId="1" r:id="rId1"/>
+    <sheet name="barang_masuk" sheetId="2" r:id="rId2"/>
+    <sheet name="barang_keluar" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>id_barang</t>
   </si>
@@ -73,6 +75,33 @@
   </si>
   <si>
     <t>POLYTRON Kulkas 1 Pintu Belleza Varia 150 Liter PRA 15CRX</t>
+  </si>
+  <si>
+    <t>harga_beli</t>
+  </si>
+  <si>
+    <t>harga_jual</t>
+  </si>
+  <si>
+    <t>id_barang_masuk</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>barang_id</t>
+  </si>
+  <si>
+    <t>supplier_id</t>
+  </si>
+  <si>
+    <t>jumlah_masuk</t>
+  </si>
+  <si>
+    <t>keterangan</t>
+  </si>
+  <si>
+    <t>jumlah_keluar</t>
   </si>
 </sst>
 </file>
@@ -113,9 +142,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,18 +460,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D201F5-B7E0-487C-ABC4-3B9876C3F881}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="81.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,8 +488,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -470,10 +507,17 @@
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(30,60)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <f>G2-(G2*0.05)</f>
+        <v>3922550</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4129000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -485,10 +529,17 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D9" ca="1" si="0">RANDBETWEEN(30,60)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" si="1">G3-(G3*0.05)</f>
+        <v>5290550</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5569000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -500,10 +551,17 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>2526050</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2659000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -515,10 +573,17 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>3048550</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3209000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -530,10 +595,17 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2260050</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2379000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -545,10 +617,17 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1946550</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2049000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -560,10 +639,17 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1756550</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1849000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -575,7 +661,1102 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1728050</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1819000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ED9C87-A6D3-4DD5-848D-82649E95EC3B}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <f ca="1">RANDBETWEEN(1,20)</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f ca="1">RANDBETWEEN(20,40)</f>
         <v>30</v>
+      </c>
+      <c r="F2">
+        <f ca="1">VLOOKUP(C2,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>1946550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B19" ca="1" si="0">RANDBETWEEN(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D19" ca="1" si="1">RANDBETWEEN(1,20)</f>
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E19" ca="1" si="2">RANDBETWEEN(20,40)</f>
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <f ca="1">VLOOKUP(C3,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>3048550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <f ca="1">VLOOKUP(C4,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>3922550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <f ca="1">VLOOKUP(C5,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>2260050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <f ca="1">VLOOKUP(C6,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>2260050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <f ca="1">VLOOKUP(C7,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>1756550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <f ca="1">VLOOKUP(C8,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>3922550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <f ca="1">VLOOKUP(C9,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>2526050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <f ca="1">VLOOKUP(C10,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>2526050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <f ca="1">VLOOKUP(C11,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>3922550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <f ca="1">VLOOKUP(C12,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>2260050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <f ca="1">VLOOKUP(C13,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>3922550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <f ca="1">VLOOKUP(C14,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>2260050</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <f ca="1">VLOOKUP(C15,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>1728050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <f ca="1">VLOOKUP(C16,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>3922550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <f ca="1">VLOOKUP(C17,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>3048550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f ca="1">RANDBETWEEN(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <f ca="1">RANDBETWEEN(1,20)</f>
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <f ca="1">RANDBETWEEN(20,40)</f>
+        <v>36</v>
+      </c>
+      <c r="F18">
+        <f ca="1">VLOOKUP(C18,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>3048550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="F19">
+        <f ca="1">VLOOKUP(C19,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>5290550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f ca="1">RANDBETWEEN(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f ca="1">RANDBETWEEN(1,20)</f>
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <f ca="1">RANDBETWEEN(20,40)</f>
+        <v>29</v>
+      </c>
+      <c r="F20">
+        <f ca="1">VLOOKUP(C20,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>5290550</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f ca="1">RANDBETWEEN(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <f ca="1">RANDBETWEEN(1,20)</f>
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <f ca="1">RANDBETWEEN(20,40)</f>
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <f ca="1">VLOOKUP(C21,barang!$A$2:$G$9,6,FALSE)</f>
+        <v>2526050</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845D6AAA-1AA0-4073-96FF-86567EA56455}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <f ca="1">RANDBETWEEN(1,20)</f>
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <f ca="1">RANDBETWEEN(10,15)</f>
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f ca="1">VLOOKUP(C2,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>1849000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B26" ca="1" si="0">RANDBETWEEN(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D26" ca="1" si="1">RANDBETWEEN(1,20)</f>
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E26" ca="1" si="2">RANDBETWEEN(10,15)</f>
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <f ca="1">VLOOKUP(C3,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>3209000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <f ca="1">VLOOKUP(C4,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>2049000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <f ca="1">VLOOKUP(C5,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>1849000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <f ca="1">VLOOKUP(C6,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>3209000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <f ca="1">VLOOKUP(C7,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>3209000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <f ca="1">VLOOKUP(C8,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>4129000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <f ca="1">VLOOKUP(C9,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>5569000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f ca="1">VLOOKUP(C10,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>2049000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <f ca="1">VLOOKUP(C11,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>5569000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f ca="1">VLOOKUP(C12,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>1849000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <f ca="1">VLOOKUP(C13,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>4129000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <f ca="1">VLOOKUP(C14,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>2379000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <f ca="1">VLOOKUP(C15,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>3209000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <f ca="1">VLOOKUP(C16,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>1819000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <f ca="1">VLOOKUP(C17,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>5569000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f ca="1">RANDBETWEEN(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <f ca="1">RANDBETWEEN(1,20)</f>
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <f ca="1">RANDBETWEEN(10,15)</f>
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <f ca="1">VLOOKUP(C18,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>2049000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <f ca="1">VLOOKUP(C19,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>3209000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <f ca="1">VLOOKUP(C20,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>5569000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <f ca="1">VLOOKUP(C21,barang!$A$2:$G$9,7,FALSE)</f>
+        <v>2049000</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/data_barang.xlsx
+++ b/database/seeders/data_barang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\inventory_eoq\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE0E4D-0E75-46D4-8031-27928EEF98D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4250DC-1864-44EA-AF84-950D8C3C0EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{164D28EB-19A2-46B5-9A43-4782667B0A5D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{164D28EB-19A2-46B5-9A43-4782667B0A5D}"/>
   </bookViews>
   <sheets>
     <sheet name="barang" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>id_barang</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>jumlah_keluar</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D201F5-B7E0-487C-ABC4-3B9876C3F881}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +510,7 @@
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(30,60)</f>
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <f>G2-(G2*0.05)</f>
@@ -528,8 +531,8 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D9" ca="1" si="0">RANDBETWEEN(30,60)</f>
-        <v>43</v>
+        <f t="shared" ref="D3:D17" ca="1" si="0">RANDBETWEEN(30,60)</f>
+        <v>30</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F9" si="1">G3-(G3*0.05)</f>
@@ -551,7 +554,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
@@ -573,7 +576,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
@@ -595,7 +598,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
@@ -617,7 +620,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
@@ -639,7 +642,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
@@ -661,13 +664,189 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
         <v>1728050</v>
       </c>
       <c r="G9" s="2">
+        <v>1819000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <f ca="1">RANDBETWEEN(30,60)</f>
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <f>G10-(G10*0.05)</f>
+        <v>3922550</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4129000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F17" si="2">G11-(G11*0.05)</f>
+        <v>5290550</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5569000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>2526050</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2659000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>3048550</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3209000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>2260050</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2379000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>1946550</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2049000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>1756550</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1849000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1728050</v>
+      </c>
+      <c r="G17" s="2">
         <v>1819000</v>
       </c>
     </row>
@@ -680,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ED9C87-A6D3-4DD5-848D-82649E95EC3B}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,23 +900,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(20,40)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F2">
         <f ca="1">VLOOKUP(C2,barang!$A$2:$G$9,6,FALSE)</f>
-        <v>1946550</v>
+        <v>2526050</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -746,23 +925,23 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B19" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D19" ca="1" si="1">RANDBETWEEN(1,20)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E19" ca="1" si="2">RANDBETWEEN(20,40)</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <f ca="1">VLOOKUP(C3,barang!$A$2:$G$9,6,FALSE)</f>
-        <v>3048550</v>
+        <v>2260050</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -771,23 +950,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <f ca="1">VLOOKUP(C4,barang!$A$2:$G$9,6,FALSE)</f>
-        <v>3922550</v>
+        <v>1946550</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -796,23 +975,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <f ca="1">VLOOKUP(C5,barang!$A$2:$G$9,6,FALSE)</f>
-        <v>2260050</v>
+        <v>1946550</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -821,23 +1000,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <f ca="1">VLOOKUP(C6,barang!$A$2:$G$9,6,FALSE)</f>
-        <v>2260050</v>
+        <v>3922550</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -846,15 +1025,15 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
@@ -862,7 +1041,7 @@
       </c>
       <c r="F7">
         <f ca="1">VLOOKUP(C7,barang!$A$2:$G$9,6,FALSE)</f>
-        <v>1756550</v>
+        <v>2260050</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -871,23 +1050,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F8">
         <f ca="1">VLOOKUP(C8,barang!$A$2:$G$9,6,FALSE)</f>
-        <v>3922550</v>
+        <v>5290550</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -896,23 +1075,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
         <v>4</v>
       </c>
-      <c r="C9">
-        <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>3</v>
-      </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <f ca="1">VLOOKUP(C9,barang!$A$2:$G$9,6,FALSE)</f>
-        <v>2526050</v>
+        <v>3048550</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -921,23 +1100,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F10">
         <f ca="1">VLOOKUP(C10,barang!$A$2:$G$9,6,FALSE)</f>
-        <v>2526050</v>
+        <v>3922550</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -950,19 +1129,19 @@
       </c>
       <c r="C11">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F11">
         <f ca="1">VLOOKUP(C11,barang!$A$2:$G$9,6,FALSE)</f>
-        <v>3922550</v>
+        <v>5290550</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -975,19 +1154,19 @@
       </c>
       <c r="C12">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12">
         <f ca="1">VLOOKUP(C12,barang!$A$2:$G$9,6,FALSE)</f>
-        <v>2260050</v>
+        <v>2526050</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1000,11 +1179,11 @@
       </c>
       <c r="C13">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
@@ -1012,7 +1191,7 @@
       </c>
       <c r="F13">
         <f ca="1">VLOOKUP(C13,barang!$A$2:$G$9,6,FALSE)</f>
-        <v>3922550</v>
+        <v>3048550</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1021,23 +1200,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F14">
         <f ca="1">VLOOKUP(C14,barang!$A$2:$G$9,6,FALSE)</f>
-        <v>2260050</v>
+        <v>1728050</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1050,19 +1229,19 @@
       </c>
       <c r="C15">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F15">
         <f ca="1">VLOOKUP(C15,barang!$A$2:$G$9,6,FALSE)</f>
-        <v>1728050</v>
+        <v>2526050</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1071,23 +1250,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F16">
         <f ca="1">VLOOKUP(C16,barang!$A$2:$G$9,6,FALSE)</f>
-        <v>3922550</v>
+        <v>3048550</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1096,23 +1275,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F17">
         <f ca="1">VLOOKUP(C17,barang!$A$2:$G$9,6,FALSE)</f>
-        <v>3048550</v>
+        <v>1756550</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1121,11 +1300,11 @@
       </c>
       <c r="B18">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <f ca="1">RANDBETWEEN(1,20)</f>
@@ -1133,11 +1312,11 @@
       </c>
       <c r="E18">
         <f ca="1">RANDBETWEEN(20,40)</f>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F18">
         <f ca="1">VLOOKUP(C18,barang!$A$2:$G$9,6,FALSE)</f>
-        <v>3048550</v>
+        <v>5290550</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1146,23 +1325,23 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F19">
         <f ca="1">VLOOKUP(C19,barang!$A$2:$G$9,6,FALSE)</f>
-        <v>5290550</v>
+        <v>1728050</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1171,7 +1350,7 @@
       </c>
       <c r="B20">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
@@ -1179,11 +1358,11 @@
       </c>
       <c r="D20">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <f ca="1">RANDBETWEEN(20,40)</f>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F20">
         <f ca="1">VLOOKUP(C20,barang!$A$2:$G$9,6,FALSE)</f>
@@ -1208,7 +1387,7 @@
       </c>
       <c r="E21">
         <f ca="1">RANDBETWEEN(20,40)</f>
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F21">
         <f ca="1">VLOOKUP(C21,barang!$A$2:$G$9,6,FALSE)</f>
@@ -1265,23 +1444,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(10,15)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <f ca="1">VLOOKUP(C2,barang!$A$2:$G$9,7,FALSE)</f>
-        <v>1849000</v>
+        <v>5569000</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1289,24 +1468,24 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B26" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <f t="shared" ref="B3:B21" ca="1" si="0">RANDBETWEEN(1,5)</f>
+        <v>1</v>
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D26" ca="1" si="1">RANDBETWEEN(1,20)</f>
-        <v>9</v>
+        <f t="shared" ref="D3:D21" ca="1" si="1">RANDBETWEEN(1,20)</f>
+        <v>16</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E26" ca="1" si="2">RANDBETWEEN(10,15)</f>
-        <v>11</v>
+        <f t="shared" ref="E3:E21" ca="1" si="2">RANDBETWEEN(10,15)</f>
+        <v>12</v>
       </c>
       <c r="F3">
         <f ca="1">VLOOKUP(C3,barang!$A$2:$G$9,7,FALSE)</f>
-        <v>3209000</v>
+        <v>2049000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1323,11 +1502,11 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <f ca="1">VLOOKUP(C4,barang!$A$2:$G$9,7,FALSE)</f>
@@ -1344,19 +1523,19 @@
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <f ca="1">VLOOKUP(C5,barang!$A$2:$G$9,7,FALSE)</f>
-        <v>1849000</v>
+        <v>5569000</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1365,15 +1544,15 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
@@ -1381,7 +1560,7 @@
       </c>
       <c r="F6">
         <f ca="1">VLOOKUP(C6,barang!$A$2:$G$9,7,FALSE)</f>
-        <v>3209000</v>
+        <v>2049000</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1390,23 +1569,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="2"/>
         <v>15</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
       </c>
       <c r="F7">
         <f ca="1">VLOOKUP(C7,barang!$A$2:$G$9,7,FALSE)</f>
-        <v>3209000</v>
+        <v>2659000</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1415,23 +1594,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <f ca="1">VLOOKUP(C8,barang!$A$2:$G$9,7,FALSE)</f>
-        <v>4129000</v>
+        <v>2379000</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1440,23 +1619,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <f ca="1">VLOOKUP(C9,barang!$A$2:$G$9,7,FALSE)</f>
-        <v>5569000</v>
+        <v>2049000</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1465,11 +1644,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
@@ -1477,11 +1656,11 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <f ca="1">VLOOKUP(C10,barang!$A$2:$G$9,7,FALSE)</f>
-        <v>2049000</v>
+        <v>1819000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1494,19 +1673,19 @@
       </c>
       <c r="C11">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F11">
         <f ca="1">VLOOKUP(C11,barang!$A$2:$G$9,7,FALSE)</f>
-        <v>5569000</v>
+        <v>2379000</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1515,15 +1694,15 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
@@ -1531,7 +1710,7 @@
       </c>
       <c r="F12">
         <f ca="1">VLOOKUP(C12,barang!$A$2:$G$9,7,FALSE)</f>
-        <v>1849000</v>
+        <v>1819000</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1540,23 +1719,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <f ca="1">VLOOKUP(C13,barang!$A$2:$G$9,7,FALSE)</f>
-        <v>4129000</v>
+        <v>1819000</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1565,23 +1744,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F14">
         <f ca="1">VLOOKUP(C14,barang!$A$2:$G$9,7,FALSE)</f>
-        <v>2379000</v>
+        <v>5569000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1594,7 +1773,7 @@
       </c>
       <c r="C15">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
@@ -1602,11 +1781,11 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F15">
         <f ca="1">VLOOKUP(C15,barang!$A$2:$G$9,7,FALSE)</f>
-        <v>3209000</v>
+        <v>1849000</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1623,11 +1802,11 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <f ca="1">VLOOKUP(C16,barang!$A$2:$G$9,7,FALSE)</f>
@@ -1640,11 +1819,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
@@ -1652,11 +1831,11 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17">
         <f ca="1">VLOOKUP(C17,barang!$A$2:$G$9,7,FALSE)</f>
-        <v>5569000</v>
+        <v>2659000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1665,15 +1844,15 @@
       </c>
       <c r="B18">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <f ca="1">RANDBETWEEN(10,15)</f>
@@ -1681,7 +1860,7 @@
       </c>
       <c r="F18">
         <f ca="1">VLOOKUP(C18,barang!$A$2:$G$9,7,FALSE)</f>
-        <v>2049000</v>
+        <v>1849000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1690,23 +1869,23 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <f ca="1">VLOOKUP(C19,barang!$A$2:$G$9,7,FALSE)</f>
-        <v>3209000</v>
+        <v>1819000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1715,23 +1894,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F20">
         <f ca="1">VLOOKUP(C20,barang!$A$2:$G$9,7,FALSE)</f>
-        <v>5569000</v>
+        <v>2379000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1740,23 +1919,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <f ca="1">RANDBETWEEN(1,COUNT(barang!$A$2:$A$9))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <f ca="1">VLOOKUP(C21,barang!$A$2:$G$9,7,FALSE)</f>
-        <v>2049000</v>
+        <v>4129000</v>
       </c>
     </row>
   </sheetData>
